--- a/test_data/sample_metadata.xlsx
+++ b/test_data/sample_metadata.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natan\Υπολογιστής\NatProjects\Seq2Viz\test_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\nanastasiadou\Bioinfo\Projects\NatStuff\Seq2Viz\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7A8187-44BC-4E1E-8922-C6384C7A6842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="17385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
+    <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
+    <sheet name="Φύλλο2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,88 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="39">
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Patient</t>
+  </si>
+  <si>
+    <t>control</t>
+  </si>
+  <si>
+    <t>ibrutinib</t>
+  </si>
+  <si>
+    <t>13-TB0545</t>
+  </si>
+  <si>
+    <t>19-TB0109</t>
+  </si>
+  <si>
+    <t>14-TB0242</t>
+  </si>
+  <si>
+    <t>17-TB0018</t>
+  </si>
+  <si>
+    <t>18-TB0277</t>
+  </si>
+  <si>
+    <t>18-TB0170</t>
+  </si>
+  <si>
+    <t>13TB0545_control</t>
+  </si>
+  <si>
+    <t>13TB0545_IB</t>
+  </si>
+  <si>
+    <t>19TB0109_control</t>
+  </si>
+  <si>
+    <t>19TB0109_IB</t>
+  </si>
+  <si>
+    <t>14TB0242_control</t>
+  </si>
+  <si>
+    <t>14TB0242_IB</t>
+  </si>
+  <si>
+    <t>17TB0018_control</t>
+  </si>
+  <si>
+    <t>17TB0018_IB</t>
+  </si>
+  <si>
+    <t>18TB0277_control</t>
+  </si>
+  <si>
+    <t>18TB0277_IB</t>
+  </si>
+  <si>
+    <t>18TB0170_control</t>
+  </si>
+  <si>
+    <t>18TB0170_IB</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>Run_Date</t>
+  </si>
+  <si>
+    <t>pathtoanalysis</t>
+  </si>
+  <si>
+    <t>/work/kate_mallou/RNAseq_analysis_Subset1_internal_samples_28012025</t>
+  </si>
+  <si>
+    <t>/mnt/new_home/bio_tmp/natanastas_analysis/RNAseq_analysis/Nancy/run_20250114</t>
+  </si>
   <si>
     <t>sampleID</t>
   </si>
@@ -32,69 +115,45 @@
     <t>patientID</t>
   </si>
   <si>
-    <t>CIIPII_BIRC3_A</t>
-  </si>
-  <si>
-    <t>CIIPII_MCS_A</t>
-  </si>
-  <si>
-    <t>MEC1_BIRC3_A</t>
-  </si>
-  <si>
-    <t>MEC1_MCS_A</t>
-  </si>
-  <si>
-    <t>MEC1_BIRC3_B</t>
-  </si>
-  <si>
-    <t>MEC1_BIRC3_C</t>
-  </si>
-  <si>
-    <t>MEC1_MCS_B</t>
-  </si>
-  <si>
-    <t>MEC1_MCS_C</t>
-  </si>
-  <si>
-    <t>CIIPII_BIRC3_C</t>
-  </si>
-  <si>
-    <t>CIIPII_MCS_C</t>
-  </si>
-  <si>
-    <t>BIRC3_c1639del</t>
-  </si>
-  <si>
-    <t>empty_backbone</t>
-  </si>
-  <si>
-    <t>Group2</t>
-  </si>
-  <si>
     <t>Group1</t>
   </si>
   <si>
-    <t>MEC1_BIRC3</t>
-  </si>
-  <si>
-    <t>MEC1_MCS</t>
-  </si>
-  <si>
-    <t>CIIPII_BIRC3</t>
-  </si>
-  <si>
-    <t>CIIPII_MCS</t>
+    <t>S1_control</t>
+  </si>
+  <si>
+    <t>S1_t</t>
+  </si>
+  <si>
+    <t>S2_control</t>
+  </si>
+  <si>
+    <t>S2_t</t>
+  </si>
+  <si>
+    <t>S3_control</t>
+  </si>
+  <si>
+    <t>S3_t</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="161"/>
       <scheme val="minor"/>
@@ -103,18 +162,38 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="161"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -141,20 +220,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -170,7 +250,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -180,39 +260,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -245,9 +325,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -280,6 +377,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -341,13 +455,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -356,6 +463,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -420,183 +534,369 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="79.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>28012025</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2">
+        <v>14012025</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>14012025</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>14012025</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>14012025</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2">
+        <v>28012025</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>14012025</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>14012025</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>28012025</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="C11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2">
+        <v>14012025</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>14012025</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="C13" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>19</v>
+      <c r="D13">
+        <v>14012025</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
